--- a/outputs-HGR-r202/g__UBA1777.xlsx
+++ b/outputs-HGR-r202/g__UBA1777.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,42 +499,218 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT28136.fa</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.526464976039015e-06</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0203325581871427</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.007852077655511602</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.00958689335152693</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.04407645940081856</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.08441029756770885</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.05041646357780096</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7833157237945143</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.7833157237945143</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>s__UBA1777 sp900549865</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>s__UBA1777 sp900549865</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT42485.fa</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.82700521580218e-05</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01579831515615033</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.005742843574068976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.02598807862982006</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.08443534237961117</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0008082942359582481</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.03897881022638731</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.828220045745846</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.828220045745846</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>s__UBA1777 sp900549865</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>s__UBA1777 sp900549865</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT5727.fa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.256205353976694e-05</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01828020607322432</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01136294465309807</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.01377829564904465</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02499392116772749</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1284212640925647</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.02133178728389983</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7818090190269011</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.7818090190269011</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>s__UBA1777 sp900549865</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>s__UBA1777 sp900549865</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59039.fa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.886116559931515e-06</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.007704161518379869</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.003993394402656935</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.008034461665764386</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.02444453706277179</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2221761204706176</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.01404849052658796</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7195889482366615</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7195889482366615</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>s__UBA1777 sp900549865</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>s__UBA1777 sp900549865</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT82545.fa</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B6" t="n">
         <v>0.001483486330849563</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C6" t="n">
         <v>0.06352903792101985</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D6" t="n">
         <v>0.07828734849728232</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E6" t="n">
         <v>0.04579907314878372</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F6" t="n">
         <v>0.7417798755094906</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G6" t="n">
         <v>0.01577256704741418</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H6" t="n">
         <v>0.0515489682207509</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I6" t="n">
         <v>0.001799643324408954</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J6" t="n">
         <v>0.7417798755094906</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>s__UBA1777 sp900549485</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>s__UBA1777 sp900549485</t>
         </is>
